--- a/data/generator/overnightcost.xlsx
+++ b/data/generator/overnightcost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canli/euler/work/GETP/generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canli/dan/work/GETP/data/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E426BF-DF5F-6845-B448-BF158E45DA55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B8C77-0D32-BF49-B030-6487132EB5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42560" yWindow="3040" windowWidth="38200" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="480" windowWidth="31520" windowHeight="18740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>old data from NREL</t>
+  </si>
+  <si>
+    <t>coal-st-old1</t>
+  </si>
+  <si>
+    <t>ng-ct-old</t>
+  </si>
+  <si>
+    <t>ng-cc-old</t>
+  </si>
+  <si>
+    <t>ng-st-old</t>
+  </si>
+  <si>
+    <t>pv-old</t>
+  </si>
+  <si>
+    <t>wind-old</t>
+  </si>
+  <si>
+    <t>nuc-st-old</t>
   </si>
 </sst>
 </file>
@@ -415,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +449,7 @@
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +480,29 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,8 +535,29 @@
       <c r="J2" s="2">
         <v>1355000</v>
       </c>
+      <c r="K2">
+        <v>3383321.6718192701</v>
+      </c>
+      <c r="L2">
+        <v>819821.18208435399</v>
+      </c>
+      <c r="M2">
+        <v>959316.34393077297</v>
+      </c>
+      <c r="N2">
+        <v>3383321.6718192701</v>
+      </c>
+      <c r="O2">
+        <v>1340621.5369005101</v>
+      </c>
+      <c r="P2">
+        <v>1707263.1506794901</v>
+      </c>
+      <c r="Q2">
+        <v>4953812.3829361703</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -528,8 +591,29 @@
       <c r="J3">
         <v>1252000</v>
       </c>
+      <c r="K3">
+        <v>3383321.6718192701</v>
+      </c>
+      <c r="L3">
+        <v>819821.18208435399</v>
+      </c>
+      <c r="M3">
+        <v>959316.34393077297</v>
+      </c>
+      <c r="N3">
+        <v>3383321.6718192701</v>
+      </c>
+      <c r="O3">
+        <v>1340621.5369005101</v>
+      </c>
+      <c r="P3">
+        <v>1707263.1506794901</v>
+      </c>
+      <c r="Q3">
+        <v>4953812.3829361703</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,12 +631,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -588,7 +672,7 @@
         <v>0.2494626975525138</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -620,7 +704,7 @@
         <v>1611214.5406524658</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I10">
         <f>(I7-I2)/I7</f>
         <v>0.11347570190872477</v>
